--- a/data/negative_signals/Indirectly connected (A-X-B) - Desloratadine - pancytopenia.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Desloratadine - pancytopenia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="119">
   <si>
     <t>pathWeight</t>
   </si>
@@ -191,211 +191,184 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>69559568</t>
+    <t>3128396</t>
   </si>
   <si>
     <t>interacts with</t>
   </si>
   <si>
-    <t>132338403</t>
+    <t>68733001</t>
   </si>
   <si>
     <t>is process of</t>
   </si>
   <si>
+    <t>603590</t>
+  </si>
+  <si>
+    <t>headache</t>
+  </si>
+  <si>
+    <t>14725750</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>109335346</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>4394972</t>
+  </si>
+  <si>
+    <t>neutrophil elastase (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8476475</t>
+  </si>
+  <si>
+    <t>does not inhibit</t>
+  </si>
+  <si>
+    <t>108683002</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>39421678</t>
+  </si>
+  <si>
+    <t>is ingredient of</t>
+  </si>
+  <si>
+    <t>39421679</t>
+  </si>
+  <si>
+    <t>is derivative of</t>
+  </si>
+  <si>
+    <t>120628421</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>132074659</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>65107401</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>117371289</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>836328</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>39421684</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>59964599</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>55683527</t>
+  </si>
+  <si>
+    <t>4047989</t>
+  </si>
+  <si>
+    <t>liver</t>
+  </si>
+  <si>
+    <t>39421693</t>
+  </si>
+  <si>
+    <t>66549464</t>
+  </si>
+  <si>
+    <t>71878621</t>
+  </si>
+  <si>
+    <t>70042638</t>
+  </si>
+  <si>
+    <t>5127800</t>
+  </si>
+  <si>
+    <t>psychotherapy, multiple</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>88790973</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>132721693</t>
+  </si>
+  <si>
+    <t>91228110</t>
+  </si>
+  <si>
     <t>2940375</t>
   </si>
   <si>
     <t>symptoms</t>
   </si>
   <si>
-    <t>146809001</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>156722241</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>130354362</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>120419592</t>
+    <t>80432088</t>
+  </si>
+  <si>
+    <t>54061010</t>
   </si>
   <si>
     <t>is a</t>
   </si>
   <si>
-    <t>133101390</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>147641166</t>
-  </si>
-  <si>
-    <t>133368</t>
-  </si>
-  <si>
-    <t>homo sapiens</t>
-  </si>
-  <si>
-    <t>78676722</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>117491569</t>
-  </si>
-  <si>
-    <t>199441321</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>129696812</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>603590</t>
-  </si>
-  <si>
-    <t>headache</t>
-  </si>
-  <si>
-    <t>80947724</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>175515764</t>
-  </si>
-  <si>
-    <t>4394972</t>
-  </si>
-  <si>
-    <t>neutrophil elastase (homo sapiens)</t>
-  </si>
-  <si>
-    <t>74867080</t>
-  </si>
-  <si>
-    <t>does not inhibit</t>
-  </si>
-  <si>
-    <t>174807480</t>
-  </si>
-  <si>
-    <t>836328</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>105773535</t>
-  </si>
-  <si>
-    <t>is part of</t>
-  </si>
-  <si>
-    <t>126391518</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>122114102</t>
-  </si>
-  <si>
-    <t>4047989</t>
-  </si>
-  <si>
-    <t>liver</t>
-  </si>
-  <si>
-    <t>105773544</t>
-  </si>
-  <si>
-    <t>133036320</t>
-  </si>
-  <si>
-    <t>138261285</t>
-  </si>
-  <si>
-    <t>136473710</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>105773530</t>
-  </si>
-  <si>
-    <t>is derivative of</t>
-  </si>
-  <si>
-    <t>105773529</t>
-  </si>
-  <si>
-    <t>is ingredient of</t>
-  </si>
-  <si>
-    <t>131583173</t>
-  </si>
-  <si>
-    <t>186839492</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>198283081</t>
-  </si>
-  <si>
-    <t>183592632</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>5127800</t>
-  </si>
-  <si>
-    <t>psychotherapy, multiple</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>154928627</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>198912738</t>
-  </si>
-  <si>
-    <t>157459753</t>
+    <t>90551950</t>
+  </si>
+  <si>
+    <t>81226711</t>
+  </si>
+  <si>
+    <t>66611426</t>
+  </si>
+  <si>
+    <t>63987868</t>
   </si>
 </sst>
 </file>
@@ -644,7 +617,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -683,36 +656,12 @@
         <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T3" t="s">
-        <v>74</v>
-      </c>
-      <c r="U3" t="s">
-        <v>75</v>
-      </c>
-      <c r="V3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -724,13 +673,13 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -742,33 +691,21 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>83</v>
-      </c>
-      <c r="R4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21.0</v>
+        <v>10.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -780,13 +717,13 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
@@ -798,21 +735,45 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" t="s">
         <v>87</v>
       </c>
-      <c r="L5" t="s">
+      <c r="V5" t="s">
         <v>88</v>
-      </c>
-      <c r="M5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -824,13 +785,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
         <v>90</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>91</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -851,7 +812,13 @@
         <v>94</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>95</v>
+      </c>
+      <c r="O6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -868,13 +835,13 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -886,27 +853,33 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M7" t="s">
         <v>100</v>
       </c>
       <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
         <v>101</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" t="s">
         <v>102</v>
       </c>
-      <c r="P7" t="s">
-        <v>62</v>
+      <c r="R7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -924,7 +897,7 @@
         <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -936,33 +909,27 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>108</v>
-      </c>
-      <c r="R8" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -974,13 +941,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -992,10 +959,10 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s">
         <v>113</v>
@@ -1007,75 +974,25 @@
         <v>115</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q9" t="s">
         <v>116</v>
       </c>
       <c r="R9" t="s">
+        <v>68</v>
+      </c>
+      <c r="S9" t="s">
         <v>117</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" t="s">
         <v>118</v>
       </c>
-      <c r="T9" t="s">
-        <v>66</v>
-      </c>
-      <c r="U9" t="s">
-        <v>119</v>
-      </c>
       <c r="V9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" t="s">
-        <v>126</v>
-      </c>
-      <c r="N10" t="s">
         <v>74</v>
-      </c>
-      <c r="O10" t="s">
-        <v>127</v>
-      </c>
-      <c r="P10" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
